--- a/Mozos.xlsx
+++ b/Mozos.xlsx
@@ -957,12 +957,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>activo</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[19]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -980,12 +980,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>activo</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[31]</t>
+          <t>[2, 3, 4]</t>
         </is>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>activo</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1013,24 +1013,20 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
+      <c r="A26" t="n">
+        <v>4444</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Alexis Flores</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>967824534</t>
-        </is>
+      <c r="C26" t="n">
+        <v>967824534</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>activo</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
